--- a/data/source/industries/blast_furnaces_steel_mills.xlsx
+++ b/data/source/industries/blast_furnaces_steel_mills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\02_blast furnaces and steel mills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8068F2-6172-48B3-BAEA-9DFDFB822835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE319676-7B7F-4887-8C95-50D09A8A604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"> Year</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>layoff</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,8 +457,8 @@
       <c r="B2">
         <v>531.4</v>
       </c>
-      <c r="C2">
-        <v>20.6</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>432.2</v>
@@ -496,7 +499,7 @@
         <v>515.29999999999995</v>
       </c>
       <c r="C3">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D3">
         <v>414.7</v>
@@ -504,11 +507,20 @@
       <c r="E3">
         <v>123.38</v>
       </c>
+      <c r="F3">
+        <v>3.1</v>
+      </c>
       <c r="G3">
         <v>39.799999999999997</v>
       </c>
+      <c r="H3">
+        <v>2.1</v>
+      </c>
       <c r="I3">
         <v>3.3</v>
+      </c>
+      <c r="J3">
+        <v>1.6</v>
       </c>
       <c r="K3">
         <v>1.4</v>
@@ -528,7 +540,7 @@
         <v>577.1</v>
       </c>
       <c r="C4">
-        <v>20.399999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="D4">
         <v>470.5</v>
@@ -537,19 +549,19 @@
         <v>117.04</v>
       </c>
       <c r="F4">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="G4">
         <v>38</v>
       </c>
       <c r="H4">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>4.3</v>
@@ -569,19 +581,37 @@
         <v>526.5</v>
       </c>
       <c r="C5">
-        <v>19.899999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D5">
         <v>424.7</v>
       </c>
+      <c r="E5">
+        <v>123.84</v>
+      </c>
+      <c r="F5">
+        <v>3.2</v>
+      </c>
+      <c r="G5">
+        <v>38.700000000000003</v>
+      </c>
       <c r="H5">
         <v>1.2</v>
       </c>
+      <c r="I5">
+        <v>3.5</v>
+      </c>
+      <c r="J5">
+        <v>0.4</v>
+      </c>
       <c r="K5">
         <v>2.4</v>
       </c>
       <c r="L5">
         <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -592,22 +622,28 @@
         <v>522.29999999999995</v>
       </c>
       <c r="C6">
-        <v>18.8</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>421.4</v>
       </c>
       <c r="E6">
-        <v>123.84</v>
+        <v>128.31</v>
       </c>
       <c r="F6">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="G6">
-        <v>38.700000000000003</v>
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>1.3</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>3.7</v>
@@ -616,7 +652,7 @@
         <v>0.3</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -626,23 +662,38 @@
       <c r="B7">
         <v>520</v>
       </c>
+      <c r="C7">
+        <v>18.8</v>
+      </c>
       <c r="D7">
-        <v>421.4</v>
+        <v>424.6</v>
       </c>
       <c r="E7">
-        <v>128.31</v>
+        <v>134.4</v>
+      </c>
+      <c r="F7">
+        <v>3.36</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>1.8</v>
       </c>
       <c r="I7">
-        <v>2.6</v>
+        <v>3.2</v>
+      </c>
+      <c r="J7">
+        <v>0.7</v>
+      </c>
+      <c r="K7">
+        <v>2.8</v>
       </c>
       <c r="L7">
         <v>0.4</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -656,28 +707,34 @@
         <v>19.100000000000001</v>
       </c>
       <c r="D8">
-        <v>424.6</v>
+        <v>458.4</v>
       </c>
       <c r="E8">
-        <v>134.4</v>
+        <v>140.15</v>
+      </c>
+      <c r="F8">
+        <v>3.41</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>41.1</v>
       </c>
       <c r="H8">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I8">
-        <v>3.2</v>
+        <v>2.9</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
         <v>0.6</v>
       </c>
       <c r="M8">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,61 +744,79 @@
       <c r="B9">
         <v>580.20000000000005</v>
       </c>
+      <c r="C9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D9">
+        <v>477.4</v>
+      </c>
       <c r="E9">
-        <v>140.15</v>
+        <v>141.86000000000001</v>
       </c>
       <c r="F9">
-        <v>3.2</v>
+        <v>3.46</v>
       </c>
       <c r="G9">
-        <v>41.1</v>
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
       </c>
       <c r="I9">
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J9">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0.9</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1966</v>
       </c>
+      <c r="B10">
+        <v>571.4</v>
+      </c>
       <c r="C10">
-        <v>19.600000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D10">
-        <v>458.4</v>
+        <v>467.2</v>
       </c>
       <c r="E10">
-        <v>141.86000000000001</v>
+        <v>145.71</v>
+      </c>
+      <c r="F10">
+        <v>3.58</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H10">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="I10">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="J10">
-        <v>0.4</v>
+        <v>1.7</v>
+      </c>
+      <c r="K10">
+        <v>2.4</v>
       </c>
       <c r="L10">
         <v>1.1000000000000001</v>
       </c>
       <c r="M10">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -749,63 +824,81 @@
         <v>1967</v>
       </c>
       <c r="B11">
-        <v>571.4</v>
+        <v>555.5</v>
+      </c>
+      <c r="C11">
+        <v>20.5</v>
+      </c>
+      <c r="D11">
+        <v>447.8</v>
+      </c>
+      <c r="E11">
+        <v>145.16</v>
       </c>
       <c r="F11">
-        <v>3.29</v>
+        <v>3.62</v>
       </c>
       <c r="G11">
-        <v>40.700000000000003</v>
+        <v>40.1</v>
       </c>
       <c r="H11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
         <v>0.8</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1968</v>
       </c>
+      <c r="B12">
+        <v>555.5</v>
+      </c>
       <c r="C12">
-        <v>19.899999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="D12">
-        <v>477.4</v>
+        <v>445.1</v>
       </c>
       <c r="E12">
-        <v>145.71</v>
+        <v>155.86000000000001</v>
+      </c>
+      <c r="F12">
+        <v>3.82</v>
       </c>
       <c r="G12">
-        <v>40.1</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H12">
+        <v>2.8</v>
       </c>
       <c r="I12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1.5</v>
       </c>
       <c r="K12">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
         <v>1.1000000000000001</v>
       </c>
       <c r="M12">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -813,60 +906,81 @@
         <v>1969</v>
       </c>
       <c r="B13">
-        <v>555.5</v>
+        <v>561.1</v>
+      </c>
+      <c r="C13">
+        <v>21.5</v>
+      </c>
+      <c r="D13">
+        <v>450</v>
+      </c>
+      <c r="E13">
+        <v>168.51</v>
       </c>
       <c r="F13">
-        <v>3.36</v>
+        <v>4.09</v>
       </c>
       <c r="G13">
-        <v>40.799999999999997</v>
+        <v>41.2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J13">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L13">
         <v>1.3</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1970</v>
       </c>
+      <c r="B14">
+        <v>546.29999999999995</v>
+      </c>
       <c r="C14">
-        <v>20.5</v>
+        <v>21.9</v>
       </c>
       <c r="D14">
-        <v>467.2</v>
+        <v>437.1</v>
       </c>
       <c r="E14">
-        <v>145.16</v>
+        <v>168.38</v>
+      </c>
+      <c r="F14">
+        <v>4.22</v>
       </c>
       <c r="G14">
-        <v>41.2</v>
+        <v>39.9</v>
       </c>
       <c r="H14">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I14">
+        <v>2.7</v>
+      </c>
+      <c r="J14">
+        <v>1.4</v>
+      </c>
+      <c r="K14">
         <v>3.3</v>
-      </c>
-      <c r="J14">
-        <v>1.7</v>
       </c>
       <c r="L14">
         <v>1.1000000000000001</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -874,54 +988,81 @@
         <v>1971</v>
       </c>
       <c r="B15">
-        <v>555.5</v>
+        <v>497.3</v>
+      </c>
+      <c r="C15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>394.9</v>
+      </c>
+      <c r="E15">
+        <v>181.43</v>
       </c>
       <c r="F15">
-        <v>3.41</v>
+        <v>4.57</v>
       </c>
       <c r="G15">
-        <v>39.9</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H15">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I15">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L15">
         <v>0.7</v>
       </c>
       <c r="M15">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1972</v>
       </c>
+      <c r="B16">
+        <v>491.9</v>
+      </c>
       <c r="C16">
-        <v>20.7</v>
+        <v>18.8</v>
       </c>
       <c r="D16">
-        <v>447.8</v>
+        <v>393.6</v>
       </c>
       <c r="E16">
-        <v>155.86000000000001</v>
+        <v>210.12</v>
+      </c>
+      <c r="F16">
+        <v>5.15</v>
+      </c>
+      <c r="G16">
+        <v>40.799999999999997</v>
       </c>
       <c r="H16">
         <v>2.4</v>
       </c>
+      <c r="I16">
+        <v>3.1</v>
+      </c>
       <c r="J16">
-        <v>1.5</v>
+        <v>0.9</v>
+      </c>
+      <c r="K16">
+        <v>2.2000000000000002</v>
       </c>
       <c r="L16">
         <v>0.6</v>
+      </c>
+      <c r="M16">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -929,242 +1070,81 @@
         <v>1973</v>
       </c>
       <c r="B17">
-        <v>561.1</v>
+        <v>518.4</v>
+      </c>
+      <c r="C17">
+        <v>20.3</v>
+      </c>
+      <c r="D17">
+        <v>418.1</v>
+      </c>
+      <c r="E17">
+        <v>230.74</v>
       </c>
       <c r="F17">
-        <v>3.46</v>
+        <v>5.56</v>
       </c>
       <c r="G17">
-        <v>39.700000000000003</v>
+        <v>41.5</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J17">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="K17">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
         <v>0.9</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1974</v>
       </c>
+      <c r="B18">
+        <v>522</v>
+      </c>
       <c r="C18">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="D18">
-        <v>445.1</v>
+        <v>418.7</v>
       </c>
       <c r="E18">
-        <v>168.51</v>
+        <v>263.08</v>
+      </c>
+      <c r="F18">
+        <v>6.37</v>
       </c>
       <c r="G18">
-        <v>40.799999999999997</v>
+        <v>41.3</v>
       </c>
       <c r="H18">
-        <v>2.8</v>
+        <v>3.2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K18">
+        <v>2.2999999999999998</v>
       </c>
       <c r="L18">
         <v>0.7</v>
       </c>
       <c r="M18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>546.29999999999995</v>
-      </c>
-      <c r="F19">
-        <v>3.58</v>
-      </c>
-      <c r="G19">
-        <v>41.5</v>
-      </c>
-      <c r="I19">
-        <v>3.1</v>
-      </c>
-      <c r="K19">
-        <v>3.3</v>
-      </c>
-      <c r="M19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>21.9</v>
-      </c>
-      <c r="D20">
-        <v>450</v>
-      </c>
-      <c r="E20">
-        <v>168.38</v>
-      </c>
-      <c r="G20">
-        <v>41.3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
         <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>3.62</v>
-      </c>
-      <c r="H21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I21">
-        <v>2.5</v>
-      </c>
-      <c r="J21">
-        <v>0.9</v>
-      </c>
-      <c r="K21">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>497.3</v>
-      </c>
-      <c r="D22">
-        <v>437.1</v>
-      </c>
-      <c r="E22">
-        <v>181.43</v>
-      </c>
-      <c r="F22">
-        <v>3.82</v>
-      </c>
-      <c r="J22">
-        <v>1.7</v>
-      </c>
-      <c r="K22">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>491.9</v>
-      </c>
-      <c r="C23">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K23">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>210.12</v>
-      </c>
-      <c r="F24">
-        <v>4.09</v>
-      </c>
-      <c r="H24">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>518.4</v>
-      </c>
-      <c r="C25">
-        <v>18.8</v>
-      </c>
-      <c r="D25">
-        <v>394.9</v>
-      </c>
-      <c r="F25">
-        <v>4.22</v>
-      </c>
-      <c r="H25">
-        <v>3.2</v>
-      </c>
-      <c r="K25">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>230.74</v>
-      </c>
-      <c r="H26">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>522</v>
-      </c>
-      <c r="C27">
-        <v>20.3</v>
-      </c>
-      <c r="D27">
-        <v>393.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>418.1</v>
-      </c>
-      <c r="E28">
-        <v>263.08</v>
-      </c>
-      <c r="F28">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>22.1</v>
-      </c>
-      <c r="F29">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>418.7</v>
-      </c>
-      <c r="F30">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <v>6.37</v>
       </c>
     </row>
   </sheetData>
